--- a/va_facility_data_2025-02-20/Watertown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Watertown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Watertown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Watertown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra6ae8ad8b97e432b9efac8357afbfffc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R09c0513a2966444b91714d60f707f85f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R84c10a6424444c889d183b85707ff0c0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R08e443381cb04b65bfffa7a841678dec"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfd75dd0c05d34f25809c8f975398e7ed"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdf0678ceaa9947b8ae10a18c6493c188"/>
   </x:sheets>
 </x:workbook>
 </file>
